--- a/hw7.xlsx
+++ b/hw7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6811\fsl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lectern.POLY.002\source\repos\FRE6811\fsl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC6F81D-7D12-4B2A-AB08-D8EFEEF90BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CFD50B-6D43-47B4-8518-D9A0B4975BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="1392" windowWidth="29424" windowHeight="15888" xr2:uid="{046EE668-352C-4DAD-A9BD-BD8A2BC67292}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{046EE668-352C-4DAD-A9BD-BD8A2BC67292}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>r</t>
   </si>
@@ -89,6 +87,18 @@
   <si>
     <t>z</t>
   </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>weights</t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -134,10 +144,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -223,6 +236,1159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>4.6287102628419396E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1442062631305066E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6901877447676645E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2659156382986942E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8706774289555592E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5037858995549889E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1645779469167292E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8524134667015302E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.566674301976978E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3067632511903016E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0721031315652552E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6213589424825876E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7632178781020236E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1413856696707338E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7508074361750632E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5865887751011507E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6439890405103297E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.1841496941715006E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0541463503893094E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0067170700290076E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.9338293663816385E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9474540764054128E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8239551691113999E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5585736934373429E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.419671661135922E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4621837520483478E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6827030523702851E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.077917727743215E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.6446075178951689E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.3796403913501414E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1279969351514291E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3342629385993454E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5564734551501785E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7943475187192026E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0476115249682736E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.315998976345357E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5992502380670635E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.8971123044853331E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.2093385753124037E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5356886412090838E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CA93-4CA1-9038-D11E1F53DD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="484448880"/>
+        <c:axId val="484449296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="484448880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484449296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="484449296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484448880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50045172-ADB5-4AFA-AFA6-B76C7BF3729B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,17 +1708,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F971AD-F5B6-4B70-AFF7-CF2FF9C13877}">
-  <dimension ref="B2:H44"/>
+  <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,15 +1734,27 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -586,19 +1766,23 @@
         <v>80</v>
       </c>
       <c r="F4" cm="1">
-        <f t="array" ref="F4:F44">_xlfn.MAP(_xlfn.ANCHORARRAY(E4),_xlfn.LAMBDA(_xlpm.k,_xll.BSM.PUT.VALUE(r_,s0,sigma,t,_xlpm.k)))</f>
+        <f t="array" ref="F4">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E4)</f>
         <v>1.7691467007957023E-6</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4:G44">_xlfn.ANCHORARRAY(F4) + s0 -EXP(-r_*t)*_xlfn.ANCHORARRAY(E4)</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G44" si="0">F4 + s0 -EXP(-r_*t)*E4</f>
         <v>20.59775738361563</v>
       </c>
       <c r="H4" cm="1">
-        <f t="array" ref="H4:H44">_xlfn.MAP(_xlfn.ANCHORARRAY(E4),_xlfn.LAMBDA(_xlpm.k,_xll.VSWAP.STATIC_PAYOFF(s0,z,_xlpm.k)))</f>
-        <v>4.9275880700763997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="array" ref="H4">_xll.VSWAP.STATIC_PAYOFF(s0,z,E4)</f>
+        <v>4.6287102628419396E-2</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4:I44">_xll.VSWAP.WEIGHTS(s0, z,_xlfn.ANCHORARRAY( E4))</f>
+        <v>-4.845039997114331E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -608,17 +1792,23 @@
       <c r="E5">
         <v>81</v>
       </c>
-      <c r="F5">
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E5)</f>
         <v>5.9899943035895438E-6</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
         <v>19.605233549644097</v>
       </c>
-      <c r="H5">
-        <v>4.4281401800032427E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">_xll.VSWAP.STATIC_PAYOFF(s0,z,E5)</f>
+        <v>4.1442062631305066E-2</v>
+      </c>
+      <c r="I5">
+        <v>3.0485481348591081E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -628,31 +1818,43 @@
       <c r="E6">
         <v>82</v>
       </c>
-      <c r="F6">
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E6)</f>
         <v>1.888889981218289E-5</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
         <v>18.612718393730461</v>
       </c>
-      <c r="H6">
-        <v>3.9591777712786769E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">_xll.VSWAP.STATIC_PAYOFF(s0,z,E6)</f>
+        <v>3.6901877447676645E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.9746411893871727E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="E7">
         <v>83</v>
       </c>
-      <c r="F7">
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E7)</f>
         <v>5.5629933048175139E-5</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
         <v>17.620227079944556</v>
       </c>
-      <c r="H7">
-        <v>3.5199617744479883E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">_xll.VSWAP.STATIC_PAYOFF(s0,z,E7)</f>
+        <v>3.2659156382986942E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.9033897125835262E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -663,528 +1865,751 @@
       <c r="E8">
         <v>84</v>
       </c>
-      <c r="F8">
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E8)</f>
         <v>1.534257854450102E-4</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
         <v>16.627796820977821</v>
       </c>
-      <c r="H8">
-        <v>3.1097796747431294E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">_xll.VSWAP.STATIC_PAYOFF(s0,z,E8)</f>
+        <v>2.8706774289555592E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.8346679942564679E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <f>f</f>
-        <v>100.75281954445339</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>85</v>
       </c>
-      <c r="F9">
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E9)</f>
         <v>3.9729060003258651E-4</v>
       </c>
       <c r="G9">
+        <f t="shared" si="0"/>
         <v>15.635512630973267</v>
       </c>
-      <c r="H9">
-        <v>2.7279442549808353E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">_xll.VSWAP.STATIC_PAYOFF(s0,z,E9)</f>
+        <v>2.5037858995549889E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.7683576762310702E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="E10">
         <v>86</v>
       </c>
-      <c r="F10">
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E10)</f>
         <v>9.6836645754481423E-4</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
         <v>14.643555652011642</v>
       </c>
-      <c r="H10">
-        <v>2.3737924119808518E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">_xll.VSWAP.STATIC_PAYOFF(s0,z,E10)</f>
+        <v>2.1645779469167292E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.7043472423060599E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="E11">
         <v>87</v>
       </c>
-      <c r="F11">
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E11)</f>
         <v>2.2272379872679401E-3</v>
       </c>
       <c r="G11">
+        <f t="shared" si="0"/>
         <v>13.652286468722224</v>
       </c>
-      <c r="H11">
-        <v>2.0466840414039289E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">_xll.VSWAP.STATIC_PAYOFF(s0,z,E11)</f>
+        <v>1.8524134667015302E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.6425315490646861E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="E12">
         <v>88</v>
       </c>
-      <c r="F12">
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E12)</f>
         <v>4.8455004586659923E-3</v>
       </c>
       <c r="G12">
+        <f t="shared" si="0"/>
         <v>12.662376676374492</v>
       </c>
-      <c r="H12">
-        <v>1.7460009863176529E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">_xll.VSWAP.STATIC_PAYOFF(s0,z,E12)</f>
+        <v>1.566674301976978E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.5828113937875763E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="E13">
         <v>89</v>
       </c>
-      <c r="F13">
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E13)</f>
         <v>9.995036570956975E-3</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
         <v>11.67499815766763</v>
       </c>
-      <c r="H13">
-        <v>1.4711460451692554E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">_xll.VSWAP.STATIC_PAYOFF(s0,z,E13)</f>
+        <v>1.3067632511903016E-2</v>
+      </c>
+      <c r="I13">
+        <v>2.5250931161630019E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="E14">
         <v>90</v>
       </c>
-      <c r="F14">
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E14)</f>
         <v>1.9593610512627223E-2</v>
       </c>
       <c r="G14">
+        <f t="shared" si="0"/>
         <v>10.692068676790171</v>
       </c>
-      <c r="H14">
-        <v>1.2215420351824852E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">_xll.VSWAP.STATIC_PAYOFF(s0,z,E14)</f>
+        <v>1.0721031315652552E-2</v>
+      </c>
+      <c r="I14">
+        <v>2.4692882308050002E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="E15">
         <v>91</v>
       </c>
-      <c r="F15">
-        <v>3.6586800948304743E-2</v>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E15)</f>
+        <v>3.6586800948310252E-2</v>
       </c>
       <c r="G15">
-        <v>9.7165338124067091</v>
-      </c>
-      <c r="H15">
-        <v>9.9663090750376493E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>9.7165338124067233</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">_xll.VSWAP.STATIC_PAYOFF(s0,z,E15)</f>
+        <v>8.6213589424825876E-3</v>
+      </c>
+      <c r="I15">
+        <v>2.4153130878939999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="E16">
         <v>92</v>
       </c>
-      <c r="F16">
-        <v>6.5222522165864966E-2</v>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E16)</f>
+        <v>6.5222522165843802E-2</v>
       </c>
       <c r="G16">
-        <v>8.7526414788051312</v>
-      </c>
-      <c r="H16">
-        <v>7.9587291070398747E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>8.7526414788051028</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">_xll.VSWAP.STATIC_PAYOFF(s0,z,E16)</f>
+        <v>6.7632178781020236E-3</v>
+      </c>
+      <c r="I16">
+        <v>2.3630885594927431E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
       <c r="E17">
         <v>93</v>
       </c>
-      <c r="F17">
-        <v>0.1112519348149083</v>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E17)</f>
+        <v>0.11125193481491889</v>
       </c>
       <c r="G17">
-        <v>7.8061428366350327</v>
-      </c>
-      <c r="H17">
-        <v>6.1874579949913466E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>7.8061428366350469</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">_xll.VSWAP.STATIC_PAYOFF(s0,z,E17)</f>
+        <v>5.1413856696707338E-3</v>
+      </c>
+      <c r="I17">
+        <v>2.3125397493561906E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
       <c r="E18">
         <v>94</v>
       </c>
-      <c r="F18">
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E18)</f>
         <v>0.18197875651073664</v>
       </c>
       <c r="G18">
+        <f t="shared" si="0"/>
         <v>6.8843416035117144</v>
       </c>
-      <c r="H18">
-        <v>4.6474408578784376E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">_xll.VSWAP.STATIC_PAYOFF(s0,z,E18)</f>
+        <v>3.7508074361750632E-3</v>
+      </c>
+      <c r="I18">
+        <v>2.2635957242175819E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
       <c r="E19">
         <v>95</v>
       </c>
-      <c r="F19">
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E19)</f>
         <v>0.28608681576947836</v>
       </c>
       <c r="G19">
+        <f t="shared" si="0"/>
         <v>5.9959216079513311</v>
       </c>
-      <c r="H19">
-        <v>3.3337832931873007E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">_xll.VSWAP.STATIC_PAYOFF(s0,z,E19)</f>
+        <v>2.5865887751011507E-3</v>
+      </c>
+      <c r="I19">
+        <v>2.2161892648309145E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
       <c r="E20">
         <v>96</v>
       </c>
-      <c r="F20">
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E20)</f>
         <v>0.43320747971710039</v>
       </c>
       <c r="G20">
+        <f t="shared" si="0"/>
         <v>5.1505142170798166</v>
       </c>
-      <c r="H20">
-        <v>2.2417446549792552E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">_xll.VSWAP.STATIC_PAYOFF(s0,z,E20)</f>
+        <v>1.6439890405103297E-3</v>
+      </c>
+      <c r="I20">
+        <v>2.1702566349764141E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
       <c r="E21">
         <v>97</v>
       </c>
-      <c r="F21">
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E21)</f>
         <v>0.63324061833901069</v>
       </c>
       <c r="G21">
+        <f t="shared" si="0"/>
         <v>4.3580193008825887</v>
       </c>
-      <c r="H21">
-        <v>1.3667316802688373E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">_xll.VSWAP.STATIC_PAYOFF(s0,z,E21)</f>
+        <v>9.1841496941715006E-4</v>
+      </c>
+      <c r="I21">
+        <v>2.1257373671496049E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
       <c r="E22">
         <v>98</v>
       </c>
-      <c r="F22">
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E22)</f>
         <v>0.89550280536972571</v>
       </c>
       <c r="G22">
+        <f t="shared" si="0"/>
         <v>3.6277534330941705</v>
       </c>
-      <c r="H22">
-        <v>7.0429244227339372E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H22" cm="1">
+        <f t="array" ref="H22">_xll.VSWAP.STATIC_PAYOFF(s0,z,E22)</f>
+        <v>4.0541463503893094E-4</v>
+      </c>
+      <c r="I22">
+        <v>2.0825740634218895E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
       <c r="E23">
         <v>99</v>
       </c>
-      <c r="F23">
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E23)</f>
         <v>1.2278270283146906</v>
       </c>
       <c r="G23">
+        <f t="shared" si="0"/>
         <v>2.9675496012199858</v>
       </c>
-      <c r="H23">
-        <v>2.5011061062013215E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H23" cm="1">
+        <f t="array" ref="H23">_xll.VSWAP.STATIC_PAYOFF(s0,z,E23)</f>
+        <v>1.0067170700290076E-4</v>
+      </c>
+      <c r="I23">
+        <v>2.0407122103312941E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
       <c r="E24">
         <v>100</v>
       </c>
-      <c r="F24">
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E24)</f>
         <v>1.6357627076453956</v>
       </c>
       <c r="G24">
+        <f t="shared" si="0"/>
         <v>2.382957225731559</v>
       </c>
-      <c r="H24">
+      <c r="H24" cm="1">
+        <f t="array" ref="H24">_xll.VSWAP.STATIC_PAYOFF(s0,z,E24)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>2.0001000066671715E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
       <c r="E25">
         <v>101</v>
       </c>
-      <c r="F25">
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E25)</f>
         <v>2.1220140061044543</v>
       </c>
       <c r="G25">
+        <f t="shared" si="0"/>
         <v>1.8766804693714647</v>
       </c>
-      <c r="H25">
-        <v>-5.0100609953415004E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H25" cm="1">
+        <f t="array" ref="H25">_xll.VSWAP.STATIC_PAYOFF(s0,z,E25)</f>
+        <v>9.9338293663816385E-5</v>
+      </c>
+      <c r="I25">
+        <v>1.9606882031290851E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
       <c r="E26">
         <v>102</v>
       </c>
-      <c r="F26">
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E26)</f>
         <v>2.6862100028090565</v>
       </c>
       <c r="G26">
+        <f t="shared" si="0"/>
         <v>1.4483484112569442</v>
       </c>
-      <c r="H26">
-        <v>9.5867600406078501E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H26" cm="1">
+        <f t="array" ref="H26">_xll.VSWAP.STATIC_PAYOFF(s0,z,E26)</f>
+        <v>3.9474540764054128E-4</v>
+      </c>
+      <c r="I26">
+        <v>1.9224299529387381E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
       <c r="E27">
         <v>103</v>
       </c>
-      <c r="F27">
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E27)</f>
         <v>3.325034601036315</v>
       </c>
       <c r="G27">
+        <f t="shared" si="0"/>
         <v>1.0946449546650712</v>
       </c>
-      <c r="H27">
-        <v>4.3407880605945276E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H27" cm="1">
+        <f t="array" ref="H27">_xll.VSWAP.STATIC_PAYOFF(s0,z,E27)</f>
+        <v>8.8239551691113999E-4</v>
+      </c>
+      <c r="I27">
+        <v>1.8852806725560417E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
       <c r="E28">
         <v>104</v>
       </c>
-      <c r="F28">
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E28)</f>
         <v>4.0326753059839175</v>
       </c>
       <c r="G28">
+        <f t="shared" si="0"/>
         <v>0.80975760479351777</v>
       </c>
-      <c r="H28">
-        <v>9.6081807896841731E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H28" cm="1">
+        <f t="array" ref="H28">_xll.VSWAP.STATIC_PAYOFF(s0,z,E28)</f>
+        <v>1.5585736934373429E-3</v>
+      </c>
+      <c r="I28">
+        <v>1.8491979117237628E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
       <c r="E29">
         <v>105</v>
       </c>
-      <c r="F29">
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E29)</f>
         <v>4.8014960407764722</v>
       </c>
       <c r="G29">
+        <f t="shared" si="0"/>
         <v>0.58605028476694088</v>
       </c>
-      <c r="H29">
-        <v>1.672477143049772E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H29" cm="1">
+        <f t="array" ref="H29">_xll.VSWAP.STATIC_PAYOFF(s0,z,E29)</f>
+        <v>2.419671661135922E-3</v>
+      </c>
+      <c r="I29">
+        <v>1.8141412321384665E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
       <c r="E30">
         <v>106</v>
       </c>
-      <c r="F30">
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E30)</f>
         <v>5.6228116214906425</v>
       </c>
       <c r="G30">
+        <f t="shared" si="0"/>
         <v>0.41483781066196457</v>
       </c>
-      <c r="H30">
-        <v>2.5655503303449734E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H30" cm="1">
+        <f t="array" ref="H30">_xll.VSWAP.STATIC_PAYOFF(s0,z,E30)</f>
+        <v>3.4621837520483478E-3</v>
+      </c>
+      <c r="I30">
+        <v>1.7800720940951142E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
       <c r="E31">
         <v>107</v>
       </c>
-      <c r="F31">
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E31)</f>
         <v>6.4876431259523786</v>
       </c>
       <c r="G31">
+        <f t="shared" si="0"/>
         <v>0.28714126030456555</v>
       </c>
-      <c r="H31">
-        <v>3.6366307270496723E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H31" cm="1">
+        <f t="array" ref="H31">_xll.VSWAP.STATIC_PAYOFF(s0,z,E31)</f>
+        <v>4.6827030523702851E-3</v>
+      </c>
+      <c r="I31">
+        <v>1.7469537505099275E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
       <c r="E32">
         <v>108</v>
       </c>
-      <c r="F32">
-        <v>7.3873586625639422</v>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E32)</f>
+        <v>7.3873586625639565</v>
       </c>
       <c r="G32">
-        <v>0.19432874209698525</v>
-      </c>
-      <c r="H32">
-        <v>4.8824064988053639E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>0.19432874209699946</v>
+      </c>
+      <c r="H32" cm="1">
+        <f t="array" ref="H32">_xll.VSWAP.STATIC_PAYOFF(s0,z,E32)</f>
+        <v>6.077917727743215E-3</v>
+      </c>
+      <c r="I32">
+        <v>1.7147511477902388E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
       <c r="E33">
         <v>109</v>
       </c>
-      <c r="F33">
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E33)</f>
         <v>8.3141424541656708</v>
       </c>
       <c r="G33">
+        <f t="shared" si="0"/>
         <v>0.12858447887958846</v>
       </c>
-      <c r="H33">
-        <v>6.2996573853401072E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H33" cm="1">
+        <f t="array" ref="H33">_xll.VSWAP.STATIC_PAYOFF(s0,z,E33)</f>
+        <v>7.6446075178951689E-3</v>
+      </c>
+      <c r="I33">
+        <v>1.6834308330301861E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
       <c r="E34">
         <v>110</v>
       </c>
-      <c r="F34">
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E34)</f>
         <v>9.2612752668877825</v>
       </c>
       <c r="G34">
+        <f t="shared" si="0"/>
         <v>8.3189236782558851E-2</v>
       </c>
-      <c r="H34">
-        <v>7.8852513551778414E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H34" cm="1">
+        <f t="array" ref="H34">_xll.VSWAP.STATIC_PAYOFF(s0,z,E34)</f>
+        <v>9.3796403913501414E-3</v>
+      </c>
+      <c r="I34">
+        <v>1.6529608670917684E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
       <c r="E35">
         <v>111</v>
       </c>
-      <c r="F35">
-        <v>10.223242069716239</v>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E35)</f>
+        <v>10.223242069716267</v>
       </c>
       <c r="G35">
-        <v>5.2627984791868698E-2</v>
-      </c>
-      <c r="H35">
-        <v>9.6361414117247524E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>5.262798479189712E-2</v>
+      </c>
+      <c r="H35" cm="1">
+        <f t="array" ref="H35">_xll.VSWAP.STATIC_PAYOFF(s0,z,E35)</f>
+        <v>1.1279969351514291E-2</v>
+      </c>
+      <c r="I35">
+        <v>1.6233107431501415E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
       <c r="E36">
         <v>112</v>
       </c>
-      <c r="F36">
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E36)</f>
         <v>11.195703635447071</v>
       </c>
       <c r="G36">
+        <f t="shared" si="0"/>
         <v>3.256149570357536E-2</v>
       </c>
-      <c r="H36">
-        <v>1.1549362542586705E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H36" cm="1">
+        <f t="array" ref="H36">_xll.VSWAP.STATIC_PAYOFF(s0,z,E36)</f>
+        <v>1.3342629385993454E-2</v>
+      </c>
+      <c r="I36">
+        <v>1.594451310291678E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
       <c r="E37">
         <v>113</v>
       </c>
-      <c r="F37">
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E37)</f>
         <v>12.175377013487488</v>
       </c>
       <c r="G37">
+        <f t="shared" si="0"/>
         <v>1.9706818924845493E-2</v>
       </c>
-      <c r="H37">
-        <v>1.3622028804477798E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H37" cm="1">
+        <f t="array" ref="H37">_xll.VSWAP.STATIC_PAYOFF(s0,z,E37)</f>
+        <v>1.5564734551501785E-2</v>
+      </c>
+      <c r="I37">
+        <v>1.5663547018190949E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
       <c r="E38">
         <v>114</v>
       </c>
-      <c r="F38">
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E38)</f>
         <v>13.159867858388191</v>
       </c>
       <c r="G38">
+        <f t="shared" si="0"/>
         <v>1.1669609006418113E-2</v>
       </c>
-      <c r="H38">
-        <v>1.5851330536550801E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H38" cm="1">
+        <f t="array" ref="H38">_xll.VSWAP.STATIC_PAYOFF(s0,z,E38)</f>
+        <v>1.7943475187192026E-2</v>
+      </c>
+      <c r="I38">
+        <v>1.5389942680046897E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
       <c r="E39">
         <v>115</v>
       </c>
-      <c r="F39">
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E39)</f>
         <v>14.147489319932546</v>
       </c>
       <c r="G39">
+        <f t="shared" si="0"/>
         <v>6.7630157316216355E-3</v>
       </c>
-      <c r="H39">
-        <v>1.8234531695424272E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H39" cm="1">
+        <f t="array" ref="H39">_xll.VSWAP.STATIC_PAYOFF(s0,z,E39)</f>
+        <v>2.0476115249682736E-2</v>
+      </c>
+      <c r="I39">
+        <v>1.5123445128012447E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
       <c r="E40">
         <v>116</v>
       </c>
-      <c r="F40">
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E40)</f>
         <v>15.137091403057068</v>
       </c>
       <c r="G40">
+        <f t="shared" si="0"/>
         <v>3.8370440370130154E-3</v>
       </c>
-      <c r="H40">
-        <v>2.0768967305577868E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H40" cm="1">
+        <f t="array" ref="H40">_xll.VSWAP.STATIC_PAYOFF(s0,z,E40)</f>
+        <v>2.315998976345357E-2</v>
+      </c>
+      <c r="I40">
+        <v>1.486381034462303E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
       <c r="E41">
         <v>117</v>
       </c>
-      <c r="F41">
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E41)</f>
         <v>16.127914293038334</v>
       </c>
       <c r="G41">
+        <f t="shared" si="0"/>
         <v>2.1318791991404851E-3</v>
       </c>
-      <c r="H41">
-        <v>2.3452041019177694E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H41" cm="1">
+        <f t="array" ref="H41">_xll.VSWAP.STATIC_PAYOFF(s0,z,E41)</f>
+        <v>2.5992502380670635E-2</v>
+      </c>
+      <c r="I41">
+        <v>1.4610804696563173E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
       <c r="E42">
         <v>118</v>
       </c>
-      <c r="F42">
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E42)</f>
         <v>17.119470800652291</v>
       </c>
       <c r="G42">
+        <f t="shared" si="0"/>
         <v>1.1603319939581525E-3</v>
       </c>
-      <c r="H42">
-        <v>2.6281222779743207E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H42" cm="1">
+        <f t="array" ref="H42">_xll.VSWAP.STATIC_PAYOFF(s0,z,E42)</f>
+        <v>2.8971123044853331E-2</v>
+      </c>
+      <c r="I42">
+        <v>1.436420440880104E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
       <c r="E43">
         <v>119</v>
       </c>
-      <c r="F43">
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E43)</f>
         <v>18.111457402813347</v>
       </c>
       <c r="G43">
+        <f t="shared" si="0"/>
         <v>6.18879335874567E-4</v>
       </c>
-      <c r="H43">
-        <v>2.9254046584396676E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H43" cm="1">
+        <f t="array" ref="H43">_xll.VSWAP.STATIC_PAYOFF(s0,z,E43)</f>
+        <v>3.2093385753124037E-2</v>
+      </c>
+      <c r="I43">
+        <v>1.4123795069609368E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9">
       <c r="E44">
         <v>120</v>
       </c>
-      <c r="F44">
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E44)</f>
         <v>19.103690163218165</v>
       </c>
       <c r="G44">
+        <f t="shared" si="0"/>
         <v>3.235849215457165E-4</v>
       </c>
-      <c r="H44">
-        <v>3.2368108339746238E-2</v>
+      <c r="H44" cm="1">
+        <f t="array" ref="H44">_xll.VSWAP.STATIC_PAYOFF(s0,z,E44)</f>
+        <v>3.5356886412090838E-2</v>
+      </c>
+      <c r="I44">
+        <v>3.5356886412090838E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/hw7.xlsx
+++ b/hw7.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lectern.POLY.002\source\repos\FRE6811\fsl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6811\fsl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CFD50B-6D43-47B4-8518-D9A0B4975BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857CDDAF-7868-4D80-BB05-584FF6F09ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{046EE668-352C-4DAD-A9BD-BD8A2BC67292}"/>
+    <workbookView xWindow="1296" yWindow="1392" windowWidth="29424" windowHeight="15888" xr2:uid="{046EE668-352C-4DAD-A9BD-BD8A2BC67292}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="f">Sheet1!$C$8</definedName>
-    <definedName name="k">Sheet1!$C$5</definedName>
+    <definedName name="f">Sheet1!$C$7</definedName>
     <definedName name="r_">Sheet1!$C$2</definedName>
     <definedName name="s0">Sheet1!$C$3</definedName>
     <definedName name="sigma">Sheet1!$C$4</definedName>
-    <definedName name="t">Sheet1!$C$6</definedName>
-    <definedName name="z">Sheet1!$C$9</definedName>
+    <definedName name="t">Sheet1!$C$5</definedName>
+    <definedName name="z">Sheet1!$C$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>r</t>
   </si>
@@ -77,9 +78,6 @@
   </si>
   <si>
     <t>sigma</t>
-  </si>
-  <si>
-    <t>k</t>
   </si>
   <si>
     <t>t</t>
@@ -99,15 +97,23 @@
   <si>
     <t>weights</t>
   </si>
+  <si>
+    <t>par_variance</t>
+  </si>
+  <si>
+    <t>par_volatility</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -144,7 +150,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -152,6 +158,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Handle" xfId="1" xr:uid="{62907D51-49E8-4572-A98D-5FB211300986}"/>
@@ -310,127 +318,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>92</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>97</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>98</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>99</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>101</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>102</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>103</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>104</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>105</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>106</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>107</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>108</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>109</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>110</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>111</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>112</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>113</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>114</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>115</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>116</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>117</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>118</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>119</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>120</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,130 +447,130 @@
             <c:numRef>
               <c:f>Sheet1!$H$4:$H$44</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>4.6287102628419396E-2</c:v>
+                  <c:v>3.8612982779771321E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1442062631305066E-2</c:v>
+                  <c:v>3.4649730813827995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6901877447676645E-2</c:v>
+                  <c:v>3.0928010156674179E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2659156382986942E-2</c:v>
+                  <c:v>2.7442598355469305E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8706774289555592E-2</c:v>
+                  <c:v>2.418844052920005E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5037858995549889E-2</c:v>
+                  <c:v>2.1160642275352581E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1645779469167292E-2</c:v>
+                  <c:v>1.8354462947988481E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8524134667015302E-2</c:v>
+                  <c:v>1.5765309284121704E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.566674301976978E-2</c:v>
+                  <c:v>1.3388729356970164E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3067632511903016E-2</c:v>
+                  <c:v>1.1220406836160574E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0721031315652552E-2</c:v>
+                  <c:v>9.2561555363843417E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.6213589424825876E-3</c:v>
+                  <c:v>7.491914237274605E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7632178781020236E-3</c:v>
+                  <c:v>5.923741758477985E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1413856696707338E-3</c:v>
+                  <c:v>4.5478122749750272E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7508074361750632E-3</c:v>
+                  <c:v>3.3604108587279025E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5865887751011507E-3</c:v>
+                  <c:v>2.3579292336529112E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6439890405103297E-3</c:v>
+                  <c:v>1.5368617317920164E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.1841496941715006E-4</c:v>
+                  <c:v>8.9380143934038314E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0541463503893094E-4</c:v>
+                  <c:v>4.2543652193999248E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0067170700290076E-4</c:v>
+                  <c:v>1.2854671931840367E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.9338293663816385E-5</c:v>
+                  <c:v>3.6749367390832149E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.9474540764054128E-4</c:v>
+                  <c:v>2.3582980909666457E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.8239551691113999E-4</c:v>
+                  <c:v>5.9435538183082864E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5585736934373429E-3</c:v>
+                  <c:v>1.1095164247476863E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.419671661135922E-3</c:v>
+                  <c:v>1.7785768944651309E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.4621837520483478E-3</c:v>
+                  <c:v>2.5988718154626028E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.6827030523702851E-3</c:v>
+                  <c:v>3.5678048399058887E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.077917727743215E-3</c:v>
+                  <c:v>4.6828459113152365E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.6446075178951689E-3</c:v>
+                  <c:v>5.9415290268126364E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.3796403913501414E-3</c:v>
+                  <c:v>7.3414500930060744E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1279969351514291E-2</c:v>
+                  <c:v>8.8802648708421195E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3342629385993454E-2</c:v>
+                  <c:v>1.0555687005037812E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5564734551501785E-2</c:v>
+                  <c:v>1.236548613394256E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7943475187192026E-2</c:v>
+                  <c:v>1.4307486075930465E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0476115249682736E-2</c:v>
+                  <c:v>1.6379563088628202E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.315998976345357E-2</c:v>
+                  <c:v>1.8579644197501077E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.5992502380670635E-2</c:v>
+                  <c:v>2.09057055905012E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.8971123044853331E-2</c:v>
+                  <c:v>2.3355771075676046E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.2093385753124037E-2</c:v>
+                  <c:v>2.5927910598792792E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.5356886412090838E-2</c:v>
+                  <c:v>2.8620238818198418E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,7 +678,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1354,14 +1362,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>211455</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>211455</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1710,901 +1718,791 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F971AD-F5B6-4B70-AFF7-CF2FF9C13877}">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <f>s0</f>
+        <v>110</v>
       </c>
       <c r="F2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E4" cm="1">
-        <f t="array" ref="E4:E44">_xll.ARRAY.SEQUENCE(E2,F2,1)</f>
-        <v>80</v>
-      </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E4)</f>
-        <v>1.7691467007957023E-6</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G44" si="0">F4 + s0 -EXP(-r_*t)*E4</f>
-        <v>20.59775738361563</v>
-      </c>
-      <c r="H4" cm="1">
-        <f t="array" ref="H4">_xll.VSWAP.STATIC_PAYOFF(s0,z,E4)</f>
-        <v>4.6287102628419396E-2</v>
-      </c>
-      <c r="I4" cm="1">
+        <f t="array" ref="E4:E44">_xll.ARRAY.SEQUENCE(E2-F2,E2+F2,1)</f>
+        <v>90</v>
+      </c>
+      <c r="F4" s="4" cm="1">
+        <f t="array" ref="F4:F44">_xlfn.MAP(_xlfn.ANCHORARRAY(E4),_xlfn.LAMBDA(_xlpm.k,_xll.BSM.PUT.VALUE(r_,s0,sigma,t,_xlpm.k)))</f>
+        <v>7.6684922194177616E-3</v>
+      </c>
+      <c r="G4" s="4" cm="1">
+        <f t="array" ref="G4:G44">_xlfn.ANCHORARRAY(F4) + s0 - EXP(-r_*t)*_xlfn.ANCHORARRAY(E4)</f>
+        <v>20.232387476448011</v>
+      </c>
+      <c r="H4" s="4" cm="1">
+        <f t="array" ref="H4:H44">_xlfn.MAP(_xlfn.ANCHORARRAY(E4),_xlfn.LAMBDA(_xlpm.k,_xll.VSWAP.STATIC_PAYOFF(s0,z,_xlpm.k)))</f>
+        <v>3.8612982779771321E-2</v>
+      </c>
+      <c r="I4" s="4" cm="1">
         <f t="array" ref="I4:I44">_xll.VSWAP.WEIGHTS(s0, z,_xlfn.ANCHORARRAY( E4))</f>
-        <v>-4.845039997114331E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>-3.9632519659433263E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5">
+        <v>0.25</v>
+      </c>
+      <c r="E5">
+        <v>91</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.2382153635249651E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>19.23959801546637</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3.4649730813827995E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.4153130878951101E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>92</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.9527857211695282E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>18.249240596645365</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.0928010156674179E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.3630885594894124E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>s0*EXP(r_*t)</f>
+        <v>110.27534403663748</v>
+      </c>
+      <c r="E7">
+        <v>93</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.010722853817252E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>17.262316845574389</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.7442598355469305E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.3125397493561906E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>f</f>
+        <v>110.27534403663748</v>
+      </c>
+      <c r="E8">
+        <v>94</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.5417103263893151E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16.280123597902644</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.418844052920005E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.2635957242178595E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>95</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6.709111117805297E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>15.304294483419355</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.1160642275352581E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2.2161892648336901E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" cm="1">
+        <f t="array" ref="C10">_xll.VSWAP.PAR_VARIANCE(t, s0, z,_xlfn.ANCHORARRAY( E4),_xlfn.ANCHORARRAY( F4),_xlfn.ANCHORARRAY( G4))</f>
+        <v>2.233871177681325E-2</v>
+      </c>
+      <c r="E10">
+        <v>96</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9.7131985450908592E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>14.33683223529475</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.8354462947988481E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.1702566349732222E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SQRT(C10)</f>
+        <v>0.14946140564310659</v>
+      </c>
+      <c r="E11">
+        <v>97</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.13792947059404734</v>
+      </c>
+      <c r="G11" s="4">
+        <v>13.38012659804042</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.5765309284121704E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.1257373671523805E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>98</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.1922590049236946</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12.436953009972612</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.3388729356970164E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2.0825740634194956E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>99</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.26325729322983094</v>
+      </c>
+      <c r="G13" s="4">
+        <v>11.51044817588128</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.1220406836160574E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2.040712210333584E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E14">
         <v>100</v>
       </c>
-      <c r="E5">
-        <v>81</v>
-      </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E5)</f>
-        <v>5.9899943035895438E-6</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>19.605233549644097</v>
-      </c>
-      <c r="H5" cm="1">
-        <f t="array" ref="H5">_xll.VSWAP.STATIC_PAYOFF(s0,z,E5)</f>
-        <v>4.1442062631305066E-2</v>
-      </c>
-      <c r="I5">
-        <v>3.0485481348591081E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0.25</v>
-      </c>
-      <c r="E6">
-        <v>82</v>
-      </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E6)</f>
-        <v>1.888889981218289E-5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>18.612718393730461</v>
-      </c>
-      <c r="H6" cm="1">
-        <f t="array" ref="H6">_xll.VSWAP.STATIC_PAYOFF(s0,z,E6)</f>
-        <v>3.6901877447676645E-2</v>
-      </c>
-      <c r="I6">
-        <v>2.9746411893871727E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="E7">
-        <v>83</v>
-      </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E7)</f>
-        <v>5.5629933048175139E-5</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>17.620227079944556</v>
-      </c>
-      <c r="H7" cm="1">
-        <f t="array" ref="H7">_xll.VSWAP.STATIC_PAYOFF(s0,z,E7)</f>
-        <v>3.2659156382986942E-2</v>
-      </c>
-      <c r="I7">
-        <v>2.9033897125835262E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f>s0*EXP(r_*t)</f>
-        <v>100.75281954445339</v>
-      </c>
-      <c r="E8">
-        <v>84</v>
-      </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E8)</f>
-        <v>1.534257854450102E-4</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>16.627796820977821</v>
-      </c>
-      <c r="H8" cm="1">
-        <f t="array" ref="H8">_xll.VSWAP.STATIC_PAYOFF(s0,z,E8)</f>
-        <v>2.8706774289555592E-2</v>
-      </c>
-      <c r="I8">
-        <v>2.8346679942564679E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>85</v>
-      </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E9)</f>
-        <v>3.9729060003258651E-4</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>15.635512630973267</v>
-      </c>
-      <c r="H9" cm="1">
-        <f t="array" ref="H9">_xll.VSWAP.STATIC_PAYOFF(s0,z,E9)</f>
-        <v>2.5037858995549889E-2</v>
-      </c>
-      <c r="I9">
-        <v>2.7683576762310702E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="E10">
-        <v>86</v>
-      </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E10)</f>
-        <v>9.6836645754481423E-4</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>14.643555652011642</v>
-      </c>
-      <c r="H10" cm="1">
-        <f t="array" ref="H10">_xll.VSWAP.STATIC_PAYOFF(s0,z,E10)</f>
-        <v>2.1645779469167292E-2</v>
-      </c>
-      <c r="I10">
-        <v>2.7043472423060599E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="E11">
-        <v>87</v>
-      </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E11)</f>
-        <v>2.2272379872679401E-3</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>13.652286468722224</v>
-      </c>
-      <c r="H11" cm="1">
-        <f t="array" ref="H11">_xll.VSWAP.STATIC_PAYOFF(s0,z,E11)</f>
-        <v>1.8524134667015302E-2</v>
-      </c>
-      <c r="I11">
-        <v>2.6425315490646861E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="E12">
-        <v>88</v>
-      </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E12)</f>
-        <v>4.8455004586659923E-3</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>12.662376676374492</v>
-      </c>
-      <c r="H12" cm="1">
-        <f t="array" ref="H12">_xll.VSWAP.STATIC_PAYOFF(s0,z,E12)</f>
-        <v>1.566674301976978E-2</v>
-      </c>
-      <c r="I12">
-        <v>2.5828113937875763E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="E13">
-        <v>89</v>
-      </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E13)</f>
-        <v>9.995036570956975E-3</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>11.67499815766763</v>
-      </c>
-      <c r="H13" cm="1">
-        <f t="array" ref="H13">_xll.VSWAP.STATIC_PAYOFF(s0,z,E13)</f>
-        <v>1.3067632511903016E-2</v>
-      </c>
-      <c r="I13">
-        <v>2.5250931161630019E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="E14">
-        <v>90</v>
-      </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E14)</f>
-        <v>1.9593610512627223E-2</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>10.692068676790171</v>
-      </c>
-      <c r="H14" cm="1">
-        <f t="array" ref="H14">_xll.VSWAP.STATIC_PAYOFF(s0,z,E14)</f>
-        <v>1.0721031315652552E-2</v>
-      </c>
-      <c r="I14">
-        <v>2.4692882308050002E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="F14" s="4">
+        <v>0.35437243971430976</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10.604060199968302</v>
+      </c>
+      <c r="H14" s="4">
+        <v>9.2561555363843417E-3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2.000100006664951E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E15">
-        <v>91</v>
-      </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E15)</f>
-        <v>3.6586800948310252E-2</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>9.7165338124067233</v>
-      </c>
-      <c r="H15" cm="1">
-        <f t="array" ref="H15">_xll.VSWAP.STATIC_PAYOFF(s0,z,E15)</f>
-        <v>8.6213589424825876E-3</v>
-      </c>
-      <c r="I15">
-        <v>2.4153130878939999E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>101</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.46928835954836945</v>
+      </c>
+      <c r="G15" s="4">
+        <v>9.7214729974049021</v>
+      </c>
+      <c r="H15" s="4">
+        <v>7.491914237274605E-3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.9606882031311668E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E16">
-        <v>92</v>
-      </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E16)</f>
-        <v>6.5222522165843802E-2</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>8.7526414788051028</v>
-      </c>
-      <c r="H16" cm="1">
-        <f t="array" ref="H16">_xll.VSWAP.STATIC_PAYOFF(s0,z,E16)</f>
-        <v>6.7632178781020236E-3</v>
-      </c>
-      <c r="I16">
-        <v>2.3630885594927431E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
+        <v>102</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.61182552170661564</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8.8665070371656896</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5.923741758477985E-3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.9224299529366218E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E17">
-        <v>93</v>
-      </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E17)</f>
-        <v>0.11125193481491889</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>7.8061428366350469</v>
-      </c>
-      <c r="H17" cm="1">
-        <f t="array" ref="H17">_xll.VSWAP.STATIC_PAYOFF(s0,z,E17)</f>
-        <v>5.1413856696707338E-3</v>
-      </c>
-      <c r="I17">
-        <v>2.3125397493561906E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9">
+        <v>103</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.78582242746461795</v>
+      </c>
+      <c r="G17" s="4">
+        <v>8.0430008205262311</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4.5478122749750272E-3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.8852806725583315E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E18">
-        <v>94</v>
-      </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E18)</f>
-        <v>0.18197875651073664</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>6.8843416035117144</v>
-      </c>
-      <c r="H18" cm="1">
-        <f t="array" ref="H18">_xll.VSWAP.STATIC_PAYOFF(s0,z,E18)</f>
-        <v>3.7508074361750632E-3</v>
-      </c>
-      <c r="I18">
-        <v>2.2635957242175819E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
+        <v>104</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.99500430799073403</v>
+      </c>
+      <c r="G18" s="4">
+        <v>7.254679578654887</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.3604108587279025E-3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.8491979117213342E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E19">
-        <v>95</v>
-      </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E19)</f>
-        <v>0.28608681576947836</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>5.9959216079513311</v>
-      </c>
-      <c r="H19" cm="1">
-        <f t="array" ref="H19">_xll.VSWAP.STATIC_PAYOFF(s0,z,E19)</f>
-        <v>2.5865887751011507E-3</v>
-      </c>
-      <c r="I19">
-        <v>2.2161892648309145E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9">
+        <v>105</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.2428470637304061</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6.5050192119970944</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.3579292336529112E-3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.8141412321409645E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E20">
-        <v>96</v>
-      </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E20)</f>
-        <v>0.43320747971710039</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>5.1505142170798166</v>
-      </c>
-      <c r="H20" cm="1">
-        <f t="array" ref="H20">_xll.VSWAP.STATIC_PAYOFF(s0,z,E20)</f>
-        <v>1.6439890405103297E-3</v>
-      </c>
-      <c r="I20">
-        <v>2.1702566349764141E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9">
+        <v>106</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.5324452652332607</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5.7971142911024884</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.5368617317920164E-3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.7800720940926162E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E21">
-        <v>97</v>
-      </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E21)</f>
-        <v>0.63324061833901069</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>4.3580193008825887</v>
-      </c>
-      <c r="H21" cm="1">
-        <f t="array" ref="H21">_xll.VSWAP.STATIC_PAYOFF(s0,z,E21)</f>
-        <v>9.1841496941715006E-4</v>
-      </c>
-      <c r="I21">
-        <v>2.1257373671496049E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
+        <v>107</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.8663929826349508</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5.1335588861067265</v>
+      </c>
+      <c r="H21" s="4">
+        <v>8.9380143934038314E-4</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.7469537505124255E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E22">
-        <v>98</v>
-      </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E22)</f>
-        <v>0.89550280536972571</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>3.6277534330941705</v>
-      </c>
-      <c r="H22" cm="1">
-        <f t="array" ref="H22">_xll.VSWAP.STATIC_PAYOFF(s0,z,E22)</f>
-        <v>4.0541463503893094E-4</v>
-      </c>
-      <c r="I22">
-        <v>2.0825740634218895E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
+        <v>108</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.246685312460003</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4.5163480935343188</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4.2543652193999248E-4</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1.7147511477880184E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E23">
-        <v>99</v>
-      </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E23)</f>
-        <v>1.2278270283146906</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>2.9675496012199858</v>
-      </c>
-      <c r="H23" cm="1">
-        <f t="array" ref="H23">_xll.VSWAP.STATIC_PAYOFF(s0,z,E23)</f>
-        <v>1.0067170700290076E-4</v>
-      </c>
-      <c r="I23">
-        <v>2.0407122103312941E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
+        <v>109</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.6746468362283986</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3.9468064949052604</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1.2854671931840367E-4</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.6834308330318515E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E24)</f>
-        <v>1.6357627076453956</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>2.382957225731559</v>
-      </c>
-      <c r="H24" cm="1">
-        <f t="array" ref="H24">_xll.VSWAP.STATIC_PAYOFF(s0,z,E24)</f>
+        <v>110</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.1508910734182902</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3.4255476096976878</v>
+      </c>
+      <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>2.0001000066671715E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9">
+      <c r="I24" s="4">
+        <v>1.6529608670923582E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E25">
-        <v>101</v>
-      </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E25)</f>
-        <v>2.1220140061044543</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>1.8766804693714647</v>
-      </c>
-      <c r="H25" cm="1">
-        <f t="array" ref="H25">_xll.VSWAP.STATIC_PAYOFF(s0,z,E25)</f>
-        <v>9.9338293663816385E-5</v>
-      </c>
-      <c r="I25">
-        <v>1.9606882031290851E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9">
+        <v>111</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.6753125350328641</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2.9524659489147922</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3.6749367390832149E-5</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.6233107431500027E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E26">
-        <v>102</v>
-      </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E26)</f>
-        <v>2.6862100028090565</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>1.4483484112569442</v>
-      </c>
-      <c r="H26" cm="1">
-        <f t="array" ref="H26">_xll.VSWAP.STATIC_PAYOFF(s0,z,E26)</f>
-        <v>3.9474540764054128E-4</v>
-      </c>
-      <c r="I26">
-        <v>1.9224299529387381E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9">
+        <v>112</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.2471105143464216</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2.5267608058308895</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.3582980909666457E-4</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1.5944513102833166E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E27">
-        <v>103</v>
-      </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E27)</f>
-        <v>3.325034601036315</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>1.0946449546650712</v>
-      </c>
-      <c r="H27" cm="1">
-        <f t="array" ref="H27">_xll.VSWAP.STATIC_PAYOFF(s0,z,E27)</f>
-        <v>8.8239551691113999E-4</v>
-      </c>
-      <c r="I27">
-        <v>1.8852806725560417E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9">
+        <v>113</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4.8648415199219324</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2.1469886890089498</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5.9435538183082864E-4</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1.5663547018269358E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E28">
-        <v>104</v>
-      </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E28)</f>
-        <v>4.0326753059839175</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0.80975760479351777</v>
-      </c>
-      <c r="H28" cm="1">
-        <f t="array" ref="H28">_xll.VSWAP.STATIC_PAYOFF(s0,z,E28)</f>
-        <v>1.5585736934373429E-3</v>
-      </c>
-      <c r="I28">
-        <v>1.8491979117237628E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
+        <v>114</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5.5264954642934638</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1.8111395109830113</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.1095164247476863E-3</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.5389942680058694E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E29">
-        <v>105</v>
-      </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E29)</f>
-        <v>4.8014960407764722</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0.58605028476694088</v>
-      </c>
-      <c r="H29" cm="1">
-        <f t="array" ref="H29">_xll.VSWAP.STATIC_PAYOFF(s0,z,E29)</f>
-        <v>2.419671661135922E-3</v>
-      </c>
-      <c r="I29">
-        <v>1.8141412321384665E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
+        <v>115</v>
+      </c>
+      <c r="F29" s="4">
+        <v>6.2295895014221339</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1.5167304257142291</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.7785768944651309E-3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1.5123445128002733E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E30">
-        <v>106</v>
-      </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E30)</f>
-        <v>5.6228116214906425</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>0.41483781066196457</v>
-      </c>
-      <c r="H30" cm="1">
-        <f t="array" ref="H30">_xll.VSWAP.STATIC_PAYOFF(s0,z,E30)</f>
-        <v>3.4621837520483478E-3</v>
-      </c>
-      <c r="I30">
-        <v>1.7800720940951142E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
+        <v>116</v>
+      </c>
+      <c r="F30" s="4">
+        <v>6.9712728110056581</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.2609106129002896</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2.5988718154626028E-3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1.4863810344581396E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E31">
-        <v>107</v>
-      </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E31)</f>
-        <v>6.4876431259523786</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>0.28714126030456555</v>
-      </c>
-      <c r="H31" cm="1">
-        <f t="array" ref="H31">_xll.VSWAP.STATIC_PAYOFF(s0,z,E31)</f>
-        <v>4.6827030523702851E-3</v>
-      </c>
-      <c r="I31">
-        <v>1.7469537505099275E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
+        <v>117</v>
+      </c>
+      <c r="F31" s="4">
+        <v>7.7484356377868382</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1.0405703172840077</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3.5678048399058887E-3</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.4610804696606194E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E32">
-        <v>108</v>
-      </c>
-      <c r="F32" cm="1">
-        <f t="array" ref="F32">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E32)</f>
-        <v>7.3873586625639565</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>0.19432874209699946</v>
-      </c>
-      <c r="H32" cm="1">
-        <f t="array" ref="H32">_xll.VSWAP.STATIC_PAYOFF(s0,z,E32)</f>
-        <v>6.077917727743215E-3</v>
-      </c>
-      <c r="I32">
-        <v>1.7147511477902388E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
+        <v>118</v>
+      </c>
+      <c r="F32" s="4">
+        <v>8.5578164280212636</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.85244798512097475</v>
+      </c>
+      <c r="H32" s="4">
+        <v>4.6828459113152365E-3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1.4364204408805203E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E33">
-        <v>109</v>
-      </c>
-      <c r="F33" cm="1">
-        <f t="array" ref="F33">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E33)</f>
-        <v>8.3141424541656708</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>0.12858447887958846</v>
-      </c>
-      <c r="H33" cm="1">
-        <f t="array" ref="H33">_xll.VSWAP.STATIC_PAYOFF(s0,z,E33)</f>
-        <v>7.6446075178951689E-3</v>
-      </c>
-      <c r="I33">
-        <v>1.6834308330301861E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
+        <v>119</v>
+      </c>
+      <c r="F33" s="4">
+        <v>9.396101839992232</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.6932302746944714</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5.9415290268126364E-3</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1.4123795069603817E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E34">
-        <v>110</v>
-      </c>
-      <c r="F34" cm="1">
-        <f t="array" ref="F34">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E34)</f>
-        <v>9.2612752668877825</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>8.3189236782558851E-2</v>
-      </c>
-      <c r="H34" cm="1">
-        <f t="array" ref="H34">_xll.VSWAP.STATIC_PAYOFF(s0,z,E34)</f>
-        <v>9.3796403913501414E-3</v>
-      </c>
-      <c r="I34">
-        <v>1.6529608670917684E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
+        <v>120</v>
+      </c>
+      <c r="F34" s="4">
+        <v>10.260015596622617</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.55964090892740614</v>
+      </c>
+      <c r="H34" s="4">
+        <v>7.3414500930060744E-3</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1.38893711642607E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E35">
-        <v>111</v>
-      </c>
-      <c r="F35" cm="1">
-        <f t="array" ref="F35">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E35)</f>
-        <v>10.223242069716267</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>5.262798479189712E-2</v>
-      </c>
-      <c r="H35" cm="1">
-        <f t="array" ref="H35">_xll.VSWAP.STATIC_PAYOFF(s0,z,E35)</f>
-        <v>1.1279969351514291E-2</v>
-      </c>
-      <c r="I35">
-        <v>1.6233107431501415E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
+        <v>121</v>
+      </c>
+      <c r="F35" s="4">
+        <v>11.146393450395735</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.44851564030307145</v>
+      </c>
+      <c r="H35" s="4">
+        <v>8.8802648708421195E-3</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1.3660735635964705E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E36">
-        <v>112</v>
-      </c>
-      <c r="F36" cm="1">
-        <f t="array" ref="F36">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E36)</f>
-        <v>11.195703635447071</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>3.256149570357536E-2</v>
-      </c>
-      <c r="H36" cm="1">
-        <f t="array" ref="H36">_xll.VSWAP.STATIC_PAYOFF(s0,z,E36)</f>
-        <v>1.3342629385993454E-2</v>
-      </c>
-      <c r="I36">
-        <v>1.594451310291678E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
+        <v>122</v>
+      </c>
+      <c r="F36" s="4">
+        <v>12.052242813659369</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.35686188116925166</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1.0555687005037812E-2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1.3437699470905673E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E37">
-        <v>113</v>
-      </c>
-      <c r="F37" cm="1">
-        <f t="array" ref="F37">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E37)</f>
-        <v>12.175377013487488</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>1.9706818924845493E-2</v>
-      </c>
-      <c r="H37" cm="1">
-        <f t="array" ref="H37">_xll.VSWAP.STATIC_PAYOFF(s0,z,E37)</f>
-        <v>1.5564734551501785E-2</v>
-      </c>
-      <c r="I37">
-        <v>1.5663547018190949E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
+        <v>123</v>
+      </c>
+      <c r="F37" s="4">
+        <v>12.974786766970057</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.28190271208246998</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1.236548613394256E-2</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1.3220081308315534E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E38">
-        <v>114</v>
-      </c>
-      <c r="F38" cm="1">
-        <f t="array" ref="F38">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E38)</f>
-        <v>13.159867858388191</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>1.1669609006418113E-2</v>
-      </c>
-      <c r="H38" cm="1">
-        <f t="array" ref="H38">_xll.VSWAP.STATIC_PAYOFF(s0,z,E38)</f>
-        <v>1.7943475187192026E-2</v>
-      </c>
-      <c r="I38">
-        <v>1.5389942680046897E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
+        <v>124</v>
+      </c>
+      <c r="F38" s="4">
+        <v>13.911493122553969</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.22110594526891703</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1.4307486075930465E-2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1.300770707098331E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E39">
-        <v>115</v>
-      </c>
-      <c r="F39" cm="1">
-        <f t="array" ref="F39">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E39)</f>
-        <v>14.147489319932546</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>6.7630157316216355E-3</v>
-      </c>
-      <c r="H39" cm="1">
-        <f t="array" ref="H39">_xll.VSWAP.STATIC_PAYOFF(s0,z,E39)</f>
-        <v>2.0476115249682736E-2</v>
-      </c>
-      <c r="I39">
-        <v>1.5123445128012447E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9">
+        <v>125</v>
+      </c>
+      <c r="F39" s="4">
+        <v>14.860089950185392</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.17219965050288977</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1.6379563088628202E-2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1.280040961751383E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E40">
-        <v>116</v>
-      </c>
-      <c r="F40" cm="1">
-        <f t="array" ref="F40">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E40)</f>
-        <v>15.137091403057068</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>3.8370440370130154E-3</v>
-      </c>
-      <c r="H40" cm="1">
-        <f t="array" ref="H40">_xll.VSWAP.STATIC_PAYOFF(s0,z,E40)</f>
-        <v>2.315998976345357E-2</v>
-      </c>
-      <c r="I40">
-        <v>1.486381034462303E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9">
+        <v>126</v>
+      </c>
+      <c r="F40" s="4">
+        <v>15.818569459466335</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.13317603738636308</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1.8579644197501077E-2</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1.2598028412724727E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E41">
-        <v>117</v>
-      </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E41)</f>
-        <v>16.127914293038334</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>2.1318791991404851E-3</v>
-      </c>
-      <c r="H41" cm="1">
-        <f t="array" ref="H41">_xll.VSWAP.STATIC_PAYOFF(s0,z,E41)</f>
-        <v>2.5992502380670635E-2</v>
-      </c>
-      <c r="I41">
-        <v>1.4610804696563173E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9">
+        <v>127</v>
+      </c>
+      <c r="F41" s="4">
+        <v>16.78518239018381</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.10228584570637622</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2.09057055905012E-2</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1.2400409217472319E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E42">
-        <v>118</v>
-      </c>
-      <c r="F42" cm="1">
-        <f t="array" ref="F42">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E42)</f>
-        <v>17.119470800652291</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>1.1603319939581525E-3</v>
-      </c>
-      <c r="H42" cm="1">
-        <f t="array" ref="H42">_xll.VSWAP.STATIC_PAYOFF(s0,z,E42)</f>
-        <v>2.8971123044853331E-2</v>
-      </c>
-      <c r="I42">
-        <v>1.436420440880104E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9">
+        <v>128</v>
+      </c>
+      <c r="F42" s="4">
+        <v>17.758425122528379</v>
+      </c>
+      <c r="G42" s="4">
+        <v>7.8025455653488507E-2</v>
+      </c>
+      <c r="H42" s="4">
+        <v>2.3355771075676046E-2</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1.2207403794189942E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E43">
-        <v>119</v>
-      </c>
-      <c r="F43" cm="1">
-        <f t="array" ref="F43">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E43)</f>
-        <v>18.111457402813347</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>6.18879335874567E-4</v>
-      </c>
-      <c r="H43" cm="1">
-        <f t="array" ref="H43">_xll.VSWAP.STATIC_PAYOFF(s0,z,E43)</f>
-        <v>3.2093385753124037E-2</v>
-      </c>
-      <c r="I43">
-        <v>1.4123795069609368E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9">
+        <v>129</v>
+      </c>
+      <c r="F43" s="4">
+        <v>18.737021622587413</v>
+      </c>
+      <c r="G43" s="4">
+        <v>5.9118833315068287E-2</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2.5927910598792792E-2</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1.2018869628888096E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E44">
-        <v>120</v>
-      </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">_xll.BSM.PUT.VALUE(r_,s0,sigma,t,E44)</f>
-        <v>19.103690163218165</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>3.235849215457165E-4</v>
-      </c>
-      <c r="H44" cm="1">
-        <f t="array" ref="H44">_xll.VSWAP.STATIC_PAYOFF(s0,z,E44)</f>
-        <v>3.5356886412090838E-2</v>
-      </c>
-      <c r="I44">
-        <v>3.5356886412090838E-2</v>
+        <v>130</v>
+      </c>
+      <c r="F44" s="4">
+        <v>19.71990213012327</v>
+      </c>
+      <c r="G44" s="4">
+        <v>4.4496218453474512E-2</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2.8620238818198418E-2</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2.8620238818198418E-2</v>
       </c>
     </row>
   </sheetData>
